--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dkk2-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dkk2-Lrp6.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.305742</v>
+        <v>0.002991666666666667</v>
       </c>
       <c r="H2">
-        <v>0.9172259999999999</v>
+        <v>0.008975</v>
       </c>
       <c r="I2">
-        <v>0.03501796853435325</v>
+        <v>0.0003566413595017623</v>
       </c>
       <c r="J2">
-        <v>0.03501796853435325</v>
+        <v>0.0003566413595017623</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.999936</v>
+        <v>8.676671000000001</v>
       </c>
       <c r="N2">
-        <v>41.999808</v>
+        <v>26.030013</v>
       </c>
       <c r="O2">
-        <v>0.2017049292741484</v>
+        <v>0.1325240072999665</v>
       </c>
       <c r="P2">
-        <v>0.2017049292741485</v>
+        <v>0.1325240072999665</v>
       </c>
       <c r="Q2">
-        <v>4.280368432512</v>
+        <v>0.02595770740833334</v>
       </c>
       <c r="R2">
-        <v>38.523315892608</v>
+        <v>0.233619366675</v>
       </c>
       <c r="S2">
-        <v>0.007063296866546078</v>
+        <v>4.726354213008153E-05</v>
       </c>
       <c r="T2">
-        <v>0.007063296866546077</v>
+        <v>4.726354213008151E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.305742</v>
+        <v>0.002991666666666667</v>
       </c>
       <c r="H3">
-        <v>0.9172259999999999</v>
+        <v>0.008975</v>
       </c>
       <c r="I3">
-        <v>0.03501796853435325</v>
+        <v>0.0003566413595017623</v>
       </c>
       <c r="J3">
-        <v>0.03501796853435325</v>
+        <v>0.0003566413595017623</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>37.74750533333333</v>
+        <v>37.74750533333334</v>
       </c>
       <c r="N3">
         <v>113.242516</v>
       </c>
       <c r="O3">
-        <v>0.5438494785644405</v>
+        <v>0.5765403197090441</v>
       </c>
       <c r="P3">
-        <v>0.5438494785644407</v>
+        <v>0.576540319709044</v>
       </c>
       <c r="Q3">
-        <v>11.540997775624</v>
+        <v>0.1129279534555556</v>
       </c>
       <c r="R3">
-        <v>103.868979980616</v>
+        <v>1.0163515811</v>
       </c>
       <c r="S3">
-        <v>0.019044503927794</v>
+        <v>0.0002056181234286142</v>
       </c>
       <c r="T3">
-        <v>0.019044503927794</v>
+        <v>0.0002056181234286141</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.305742</v>
+        <v>0.002991666666666667</v>
       </c>
       <c r="H4">
-        <v>0.9172259999999999</v>
+        <v>0.008975</v>
       </c>
       <c r="I4">
-        <v>0.03501796853435325</v>
+        <v>0.0003566413595017623</v>
       </c>
       <c r="J4">
-        <v>0.03501796853435325</v>
+        <v>0.0003566413595017623</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.66056</v>
+        <v>19.04827033333333</v>
       </c>
       <c r="N4">
-        <v>52.98168</v>
+        <v>57.144811</v>
       </c>
       <c r="O4">
-        <v>0.2544455921614109</v>
+        <v>0.2909356729909895</v>
       </c>
       <c r="P4">
-        <v>0.2544455921614109</v>
+        <v>0.2909356729909895</v>
       </c>
       <c r="Q4">
-        <v>5.39957493552</v>
+        <v>0.05698607541388889</v>
       </c>
       <c r="R4">
-        <v>48.59617441967999</v>
+        <v>0.512874678725</v>
       </c>
       <c r="S4">
-        <v>0.008910167740013169</v>
+        <v>0.0001037596939430666</v>
       </c>
       <c r="T4">
-        <v>0.008910167740013167</v>
+        <v>0.0001037596939430666</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>25.092532</v>
       </c>
       <c r="I5">
-        <v>0.9579858137724531</v>
+        <v>0.9971069332391614</v>
       </c>
       <c r="J5">
-        <v>0.9579858137724531</v>
+        <v>0.9971069332391616</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.999936</v>
+        <v>8.676671000000001</v>
       </c>
       <c r="N5">
-        <v>41.999808</v>
+        <v>26.030013</v>
       </c>
       <c r="O5">
-        <v>0.2017049292741484</v>
+        <v>0.1325240072999665</v>
       </c>
       <c r="P5">
-        <v>0.2017049292741485</v>
+        <v>0.1325240072999665</v>
       </c>
       <c r="Q5">
-        <v>117.0979473593173</v>
+        <v>72.57321490699066</v>
       </c>
       <c r="R5">
-        <v>1053.881526233856</v>
+        <v>653.158934162916</v>
       </c>
       <c r="S5">
-        <v>0.1932304608126102</v>
+        <v>0.1321406064994338</v>
       </c>
       <c r="T5">
-        <v>0.1932304608126102</v>
+        <v>0.1321406064994338</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>25.092532</v>
       </c>
       <c r="I6">
-        <v>0.9579858137724531</v>
+        <v>0.9971069332391614</v>
       </c>
       <c r="J6">
-        <v>0.9579858137724531</v>
+        <v>0.9971069332391616</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,16 +800,16 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>37.74750533333333</v>
+        <v>37.74750533333334</v>
       </c>
       <c r="N6">
         <v>113.242516</v>
       </c>
       <c r="O6">
-        <v>0.5438494785644405</v>
+        <v>0.5765403197090441</v>
       </c>
       <c r="P6">
-        <v>0.5438494785644407</v>
+        <v>0.576540319709044</v>
       </c>
       <c r="Q6">
         <v>315.7268284989457</v>
@@ -818,10 +818,10 @@
         <v>2841.541456490512</v>
       </c>
       <c r="S6">
-        <v>0.5210000852922798</v>
+        <v>0.5748723500738105</v>
       </c>
       <c r="T6">
-        <v>0.5210000852922799</v>
+        <v>0.5748723500738105</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>25.092532</v>
       </c>
       <c r="I7">
-        <v>0.9579858137724531</v>
+        <v>0.9971069332391614</v>
       </c>
       <c r="J7">
-        <v>0.9579858137724531</v>
+        <v>0.9971069332391616</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.66056</v>
+        <v>19.04827033333333</v>
       </c>
       <c r="N7">
-        <v>52.98168</v>
+        <v>57.144811</v>
       </c>
       <c r="O7">
-        <v>0.2544455921614109</v>
+        <v>0.2909356729909895</v>
       </c>
       <c r="P7">
-        <v>0.2544455921614109</v>
+        <v>0.2909356729909895</v>
       </c>
       <c r="Q7">
-        <v>147.7160556459733</v>
+        <v>159.3231109612724</v>
       </c>
       <c r="R7">
-        <v>1329.44450081376</v>
+        <v>1433.907998651452</v>
       </c>
       <c r="S7">
-        <v>0.243755267667563</v>
+        <v>0.2900939766659171</v>
       </c>
       <c r="T7">
-        <v>0.243755267667563</v>
+        <v>0.2900939766659171</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.061084</v>
+        <v>0.02127666666666667</v>
       </c>
       <c r="H8">
-        <v>0.183252</v>
+        <v>0.06383</v>
       </c>
       <c r="I8">
-        <v>0.006996217693193719</v>
+        <v>0.002536425401336767</v>
       </c>
       <c r="J8">
-        <v>0.006996217693193719</v>
+        <v>0.002536425401336767</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.999936</v>
+        <v>8.676671000000001</v>
       </c>
       <c r="N8">
-        <v>41.999808</v>
+        <v>26.030013</v>
       </c>
       <c r="O8">
-        <v>0.2017049292741484</v>
+        <v>0.1325240072999665</v>
       </c>
       <c r="P8">
-        <v>0.2017049292741485</v>
+        <v>0.1325240072999665</v>
       </c>
       <c r="Q8">
-        <v>0.855172090624</v>
+        <v>0.1846106366433334</v>
       </c>
       <c r="R8">
-        <v>7.696548815616</v>
+        <v>1.66149572979</v>
       </c>
       <c r="S8">
-        <v>0.001411171594992185</v>
+        <v>0.0003361372584025742</v>
       </c>
       <c r="T8">
-        <v>0.001411171594992185</v>
+        <v>0.0003361372584025742</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.061084</v>
+        <v>0.02127666666666667</v>
       </c>
       <c r="H9">
-        <v>0.183252</v>
+        <v>0.06383</v>
       </c>
       <c r="I9">
-        <v>0.006996217693193719</v>
+        <v>0.002536425401336767</v>
       </c>
       <c r="J9">
-        <v>0.006996217693193719</v>
+        <v>0.002536425401336767</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>37.74750533333333</v>
+        <v>37.74750533333334</v>
       </c>
       <c r="N9">
         <v>113.242516</v>
       </c>
       <c r="O9">
-        <v>0.5438494785644405</v>
+        <v>0.5765403197090441</v>
       </c>
       <c r="P9">
-        <v>0.5438494785644407</v>
+        <v>0.576540319709044</v>
       </c>
       <c r="Q9">
-        <v>2.305768615781333</v>
+        <v>0.8031410884755555</v>
       </c>
       <c r="R9">
-        <v>20.751917542032</v>
+        <v>7.22826979628</v>
       </c>
       <c r="S9">
-        <v>0.003804889344366718</v>
+        <v>0.00146235151180484</v>
       </c>
       <c r="T9">
-        <v>0.003804889344366718</v>
+        <v>0.00146235151180484</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.061084</v>
+        <v>0.02127666666666667</v>
       </c>
       <c r="H10">
-        <v>0.183252</v>
+        <v>0.06383</v>
       </c>
       <c r="I10">
-        <v>0.006996217693193719</v>
+        <v>0.002536425401336767</v>
       </c>
       <c r="J10">
-        <v>0.006996217693193719</v>
+        <v>0.002536425401336767</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.66056</v>
+        <v>19.04827033333333</v>
       </c>
       <c r="N10">
-        <v>52.98168</v>
+        <v>57.144811</v>
       </c>
       <c r="O10">
-        <v>0.2544455921614109</v>
+        <v>0.2909356729909895</v>
       </c>
       <c r="P10">
-        <v>0.2544455921614109</v>
+        <v>0.2909356729909895</v>
       </c>
       <c r="Q10">
-        <v>1.07877764704</v>
+        <v>0.4052836984588889</v>
       </c>
       <c r="R10">
-        <v>9.70899882336</v>
+        <v>3.64755328613</v>
       </c>
       <c r="S10">
-        <v>0.001780156753834816</v>
+        <v>0.000737936631129353</v>
       </c>
       <c r="T10">
-        <v>0.001780156753834816</v>
+        <v>0.000737936631129353</v>
       </c>
     </row>
   </sheetData>
